--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H2">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +543,96 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.03919966666666667</v>
+      </c>
+      <c r="N2">
+        <v>0.117599</v>
+      </c>
+      <c r="O2">
+        <v>0.2591884862911046</v>
+      </c>
+      <c r="P2">
+        <v>0.2591884862911046</v>
+      </c>
+      <c r="Q2">
+        <v>0.05974696900988889</v>
+      </c>
+      <c r="R2">
+        <v>0.537722721089</v>
+      </c>
+      <c r="S2">
+        <v>0.2591884862911046</v>
+      </c>
+      <c r="T2">
+        <v>0.2591884862911046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.3318626666666667</v>
-      </c>
-      <c r="N2">
-        <v>0.9955880000000001</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.1096532879737778</v>
-      </c>
-      <c r="R2">
-        <v>0.9868795917640001</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.524170333333333</v>
+      </c>
+      <c r="H3">
+        <v>4.572511</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.1120403333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.336121</v>
+      </c>
+      <c r="O3">
+        <v>0.7408115137088953</v>
+      </c>
+      <c r="P3">
+        <v>0.7408115137088953</v>
+      </c>
+      <c r="Q3">
+        <v>0.1707685522034445</v>
+      </c>
+      <c r="R3">
+        <v>1.536916969831</v>
+      </c>
+      <c r="S3">
+        <v>0.7408115137088953</v>
+      </c>
+      <c r="T3">
+        <v>0.7408115137088953</v>
       </c>
     </row>
   </sheetData>
